--- a/wb_test.xlsx
+++ b/wb_test.xlsx
@@ -349,7 +349,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3">
-  <dimension ref="B3:F26"/>
+  <dimension ref="B3:G26"/>
   <sheetViews>
     <sheetView showGridLines="1" showRowColHeaders="1" tabSelected="1" workbookViewId="0" zoomScale="100"/>
   </sheetViews>
@@ -358,385 +358,309 @@
     <row r="3">
       <c r="B3" t="inlineStr">
         <is>
-          <t>data =  data1 nfactors = 2 fm = minchi rotate = varimax</t>
+          <t>data =  df_datos_Maxabs nfactors = 5 fm = minchi rotate = varimax</t>
         </is>
       </c>
       <c r="C3">
-        <v>0.730797089951558</v>
+        <v>0.413727020424902</v>
       </c>
       <c r="D3">
-        <v>0.382973098951372</v>
+        <v>0.174273493969035</v>
+      </c>
+      <c r="E3">
+        <v>0.516506155140363</v>
+      </c>
+      <c r="F3">
+        <v>0.294431319950251</v>
+      </c>
+      <c r="G3">
+        <v>0.604959939303116</v>
       </c>
     </row>
     <row r="4">
       <c r="B4" t="inlineStr">
         <is>
-          <t>data =  data1 nfactors = 2 fm = minchi rotate = oblimin</t>
+          <t>data =  df_datos_Maxabs nfactors = 5 fm = minchi rotate = equamax</t>
         </is>
       </c>
       <c r="C4">
-        <v>0.730797089951558</v>
+        <v>0.300461091900948</v>
       </c>
       <c r="D4">
-        <v>0.378587247180877</v>
+        <v>0.161645405596521</v>
+      </c>
+      <c r="E4">
+        <v>0.538152379293409</v>
+      </c>
+      <c r="F4">
+        <v>0.42480114019532</v>
+      </c>
+      <c r="G4">
+        <v>0.604959939303116</v>
       </c>
     </row>
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>data =  data1 nfactors = 2 fm = ml rotate = varimax</t>
+          <t>data =  df_datos_MinMax nfactors = 5 fm = minchi rotate = varimax</t>
         </is>
       </c>
       <c r="C5">
-        <v>0.729850101800471</v>
+        <v>0.413727020426927</v>
       </c>
       <c r="D5">
-        <v>0.378173777319542</v>
+        <v>0.174273493970703</v>
+      </c>
+      <c r="E5">
+        <v>0.516506155138471</v>
+      </c>
+      <c r="F5">
+        <v>0.294431319952439</v>
+      </c>
+      <c r="G5">
+        <v>0.604959939304779</v>
       </c>
     </row>
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>data =  data1 nfactors = 2 fm = ml rotate = oblimin</t>
+          <t>data =  df_datos_MinMax nfactors = 5 fm = minchi rotate = equamax</t>
         </is>
       </c>
       <c r="C6">
-        <v>0.72985010180047</v>
+        <v>0.300461091908371</v>
       </c>
       <c r="D6">
-        <v>0.371129643441749</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>data =  data1 nfactors = 3 fm = minchi rotate = varimax</t>
-        </is>
-      </c>
-      <c r="C7">
-        <v>0.713641970901332</v>
-      </c>
-      <c r="D7">
-        <v>0.359013020109409</v>
-      </c>
-      <c r="E7">
-        <v>0.872336081521442</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>data =  data1 nfactors = 3 fm = minchi rotate = oblimin</t>
-        </is>
-      </c>
-      <c r="C8">
-        <v>0.714424125564271</v>
-      </c>
-      <c r="D8">
-        <v>0.359173999530139</v>
-      </c>
-      <c r="E8">
-        <v>0.872336081521442</v>
+        <v>0.161645405597681</v>
+      </c>
+      <c r="E6">
+        <v>0.538152379291578</v>
+      </c>
+      <c r="F6">
+        <v>0.424801140198475</v>
+      </c>
+      <c r="G6">
+        <v>0.604959939304779</v>
       </c>
     </row>
     <row r="9">
       <c r="B9" t="inlineStr">
         <is>
-          <t>data =  data1 nfactors = 3 fm = ml rotate = varimax</t>
+          <t>data =  df_datos_Normalizer nfactors = 5 fm = minchi rotate = varimax</t>
         </is>
       </c>
       <c r="C9">
-        <v>0.776975964744843</v>
+        <v>0.503960076077162</v>
       </c>
       <c r="D9">
-        <v>0.597206365361573</v>
+        <v>0.625088210732648</v>
       </c>
       <c r="E9">
-        <v>0.336986330186183</v>
+        <v>0.781440523943968</v>
+      </c>
+      <c r="F9">
+        <v>0.70341055398696</v>
+      </c>
+      <c r="G9">
+        <v>0.770120482841851</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="inlineStr">
         <is>
-          <t>data =  data1 nfactors = 3 fm = ml rotate = oblimin</t>
+          <t>data =  df_datos_Normalizer nfactors = 5 fm = minchi rotate = equamax</t>
         </is>
       </c>
       <c r="C10">
-        <v>0.32600027008418</v>
+        <v>0.397714052558356</v>
       </c>
       <c r="D10">
-        <v>0.582278394901467</v>
+        <v>0.576977902040221</v>
       </c>
       <c r="E10">
-        <v>0.776975964744842</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>data =  data1 nfactors = 4 fm = minchi rotate = varimax</t>
-        </is>
-      </c>
-      <c r="C11">
-        <v>0.720268333278305</v>
-      </c>
-      <c r="D11">
-        <v>0.365419273704692</v>
-      </c>
-      <c r="E11">
-        <v>0.881180792216717</v>
-      </c>
-      <c r="F11">
-        <v>0.928663181966628</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>data =  data1 nfactors = 4 fm = minchi rotate = oblimin</t>
-        </is>
-      </c>
-      <c r="C12">
-        <v>0.716816918221881</v>
-      </c>
-      <c r="D12">
-        <v>0.362171625810154</v>
-      </c>
-      <c r="E12">
-        <v>0.928663181966627</v>
-      </c>
-      <c r="F12">
-        <v>0.823360707321298</v>
+        <v>0.205563514633773</v>
+      </c>
+      <c r="F10">
+        <v>0.781440523943968</v>
+      </c>
+      <c r="G10">
+        <v>0.683864744913915</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="inlineStr">
         <is>
-          <t>data =  data1 nfactors = 4 fm = ml rotate = varimax</t>
+          <t>data =  df_datos_Normalizer nfactors = 5 fm = minchi rotate = varimax</t>
         </is>
       </c>
       <c r="C13">
-        <v>0.709756295915228</v>
+        <v>0.503960076077162</v>
       </c>
       <c r="D13">
-        <v>0.357737612922842</v>
+        <v>0.625088210732648</v>
       </c>
       <c r="E13">
-        <v>0.908056603024968</v>
+        <v>0.781440523943968</v>
       </c>
       <c r="F13">
-        <v>0.868646504456394</v>
+        <v>0.70341055398696</v>
+      </c>
+      <c r="G13">
+        <v>0.770120482841851</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="inlineStr">
         <is>
-          <t>data =  data1 nfactors = 4 fm = ml rotate = oblimin</t>
+          <t>data =  df_datos_Normalizer nfactors = 5 fm = minchi rotate = equamax</t>
         </is>
       </c>
       <c r="C14">
-        <v>0.327358819449755</v>
+        <v>0.397714052558356</v>
       </c>
       <c r="D14">
-        <v>0.584019911410398</v>
+        <v>0.576977902040221</v>
       </c>
       <c r="E14">
-        <v>0.754299592640799</v>
+        <v>0.205563514633773</v>
       </c>
       <c r="F14">
-        <v>0.908056603024967</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>data =  data2 nfactors = 2 fm = minchi rotate = varimax</t>
-        </is>
-      </c>
-      <c r="C15">
-        <v>0.468166046523744</v>
-      </c>
-      <c r="D15">
-        <v>0.622326137437559</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>data =  data2 nfactors = 2 fm = minchi rotate = oblimin</t>
-        </is>
-      </c>
-      <c r="C16">
-        <v>0.453076487583448</v>
-      </c>
-      <c r="D16">
-        <v>0.62232613743756</v>
+        <v>0.781440523943968</v>
+      </c>
+      <c r="G14">
+        <v>0.683864744913915</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="inlineStr">
         <is>
-          <t>data =  data2 nfactors = 2 fm = ml rotate = varimax</t>
+          <t>data =  df_datos_PTrans nfactors = 5 fm = minchi rotate = varimax</t>
         </is>
       </c>
       <c r="C17">
-        <v>0.39201007487064</v>
+        <v>0.158841560574023</v>
       </c>
       <c r="D17">
-        <v>0.641200329790901</v>
+        <v>0.407101239674964</v>
+      </c>
+      <c r="E17">
+        <v>0.283653518909019</v>
+      </c>
+      <c r="F17">
+        <v>0.499264565715415</v>
+      </c>
+      <c r="G17">
+        <v>0.582949002457343</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="inlineStr">
         <is>
-          <t>data =  data2 nfactors = 2 fm = ml rotate = oblimin</t>
+          <t>data =  df_datos_PTrans nfactors = 5 fm = minchi rotate = equamax</t>
         </is>
       </c>
       <c r="C18">
-        <v>0.446834172831187</v>
+        <v>0.151816262515068</v>
       </c>
       <c r="D18">
-        <v>0.6412003297909</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" t="inlineStr">
-        <is>
-          <t>data =  data2 nfactors = 3 fm = minchi rotate = varimax</t>
-        </is>
-      </c>
-      <c r="C19">
-        <v>0.426878739068708</v>
-      </c>
-      <c r="D19">
-        <v>0.885902601138245</v>
-      </c>
-      <c r="E19">
-        <v>0.688032441981321</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" t="inlineStr">
-        <is>
-          <t>data =  data2 nfactors = 3 fm = minchi rotate = oblimin</t>
-        </is>
-      </c>
-      <c r="C20">
-        <v>0.435859873749347</v>
-      </c>
-      <c r="D20">
-        <v>0.885902601138245</v>
-      </c>
-      <c r="E20">
-        <v>0.691640622020999</v>
+        <v>0.414021714154986</v>
+      </c>
+      <c r="E18">
+        <v>0.287967592986367</v>
+      </c>
+      <c r="F18">
+        <v>0.514488193840438</v>
+      </c>
+      <c r="G18">
+        <v>0.582949002457342</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="inlineStr">
         <is>
-          <t>data =  data2 nfactors = 3 fm = ml rotate = varimax</t>
+          <t>data =  df_datos_Rscaler nfactors = 5 fm = minchi rotate = varimax</t>
         </is>
       </c>
       <c r="C21">
-        <v>0.426522337408326</v>
+        <v>0.413727020429417</v>
       </c>
       <c r="D21">
-        <v>0.886254660375863</v>
+        <v>0.174273493973214</v>
       </c>
       <c r="E21">
-        <v>0.687420208320552</v>
+        <v>0.516506155136643</v>
+      </c>
+      <c r="F21">
+        <v>0.294431319955367</v>
+      </c>
+      <c r="G21">
+        <v>0.604959939307669</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="inlineStr">
         <is>
-          <t>data =  data2 nfactors = 3 fm = ml rotate = oblimin</t>
+          <t>data =  df_datos_Rscaler nfactors = 5 fm = minchi rotate = equamax</t>
         </is>
       </c>
       <c r="C22">
-        <v>0.435907526737544</v>
+        <v>0.300461091915914</v>
       </c>
       <c r="D22">
-        <v>0.886254660375863</v>
+        <v>0.16164540559942</v>
       </c>
       <c r="E22">
-        <v>0.691631146421893</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" t="inlineStr">
-        <is>
-          <t>data =  data2 nfactors = 4 fm = minchi rotate = varimax</t>
-        </is>
-      </c>
-      <c r="C23">
-        <v>0.430418598973494</v>
-      </c>
-      <c r="D23">
-        <v>0.683445934975268</v>
-      </c>
-      <c r="E23">
-        <v>0.877587304506197</v>
-      </c>
-      <c r="F23">
-        <v>0.947487004109399</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" t="inlineStr">
-        <is>
-          <t>data =  data2 nfactors = 4 fm = minchi rotate = oblimin</t>
-        </is>
-      </c>
-      <c r="C24">
-        <v>0.431542762723573</v>
-      </c>
-      <c r="D24">
-        <v>0.681702490586554</v>
-      </c>
-      <c r="E24">
-        <v>0.876206600424795</v>
-      </c>
-      <c r="F24">
-        <v>0.9474870041094</v>
+        <v>0.538152379290622</v>
+      </c>
+      <c r="F22">
+        <v>0.42480114020262</v>
+      </c>
+      <c r="G22">
+        <v>0.60495993930767</v>
       </c>
     </row>
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>data =  data2 nfactors = 4 fm = ml rotate = varimax</t>
+          <t>data =  df_datos_std nfactors = 5 fm = minchi rotate = varimax</t>
         </is>
       </c>
       <c r="C25">
-        <v>0.425131005672028</v>
+        <v>0.413727020428871</v>
       </c>
       <c r="D25">
-        <v>0.885518969501865</v>
+        <v>0.174273493972501</v>
       </c>
       <c r="E25">
-        <v>0.686004229148761</v>
+        <v>0.516506155136777</v>
       </c>
       <c r="F25">
-        <v>0.892084236538396</v>
+        <v>0.294431319954692</v>
+      </c>
+      <c r="G25">
+        <v>0.604959939306694</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>data =  data2 nfactors = 4 fm = ml rotate = oblimin</t>
+          <t>data =  df_datos_std nfactors = 5 fm = minchi rotate = equamax</t>
         </is>
       </c>
       <c r="C26">
-        <v>0.436258966455877</v>
+        <v>0.300461091915137</v>
       </c>
       <c r="D26">
-        <v>0.882165920235655</v>
+        <v>0.161645405598919</v>
       </c>
       <c r="E26">
-        <v>0.69265913633321</v>
+        <v>0.53815237929018</v>
       </c>
       <c r="F26">
-        <v>0.892084236538397</v>
+        <v>0.424801140201676</v>
+      </c>
+      <c r="G26">
+        <v>0.604959939306694</v>
       </c>
     </row>
   </sheetData>
